--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -56,9 +56,6 @@
     <t>Evaluar capacidades del negocio</t>
   </si>
   <si>
-    <t>Confirmar principios de la arquitectura y del negocio</t>
-  </si>
-  <si>
     <t>Desarrollar visión de arquitectura</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Estrategia y requerimientos de los servicios de negocio</t>
+  </si>
+  <si>
+    <t>Definir plan de comunicación</t>
   </si>
 </sst>
 </file>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,117 +489,117 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
